--- a/Documentation/SCRUM/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM/SCRUM_Backlogs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F7981-6B04-4F2B-9B2E-B3AED0E1ABDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDEE9D1-E42B-4821-8E3D-4493E731B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="2124" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Remark: We compined Sprint 1 and Sprint 2 because Sprint 1 was amature.</t>
+  </si>
+  <si>
+    <t>JUnit tests are complete and tests these user stories.</t>
   </si>
 </sst>
 </file>
@@ -564,6 +567,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,12 +602,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -590,22 +611,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,23 +632,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,12 +1405,12 @@
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1419,12 +1422,12 @@
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
@@ -1436,12 +1439,12 @@
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
@@ -1453,12 +1456,12 @@
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
@@ -1470,12 +1473,12 @@
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1487,12 +1490,12 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="2" t="s">
         <v>73</v>
       </c>
@@ -1504,12 +1507,12 @@
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2" t="s">
         <v>73</v>
       </c>
@@ -1529,38 +1532,38 @@
       <c r="G16"/>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="31"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="I18" t="s">
         <v>93</v>
       </c>
@@ -1926,7 +1929,7 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>88</v>
@@ -2146,12 +2149,20 @@
       <c r="A45" s="3">
         <v>27</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="21">
+        <v>10</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -2205,6 +2216,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
@@ -2213,11 +2229,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2285,12 +2296,12 @@
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2298,19 +2309,19 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2325,10 +2336,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2337,38 +2348,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -2624,16 +2635,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/SCRUM/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM/SCRUM_Backlogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDEE9D1-E42B-4821-8E3D-4493E731B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF159F8-6763-405D-85AE-18818C1669BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,11 +567,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -590,26 +611,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -617,6 +623,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -625,15 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,12 +1405,12 @@
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1422,12 +1422,12 @@
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
@@ -1439,12 +1439,12 @@
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
@@ -1456,12 +1456,12 @@
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
@@ -1473,12 +1473,12 @@
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1490,12 +1490,12 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="2" t="s">
         <v>73</v>
       </c>
@@ -1507,12 +1507,12 @@
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="2" t="s">
         <v>73</v>
       </c>
@@ -1532,38 +1532,38 @@
       <c r="G16"/>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="I18" t="s">
         <v>93</v>
       </c>
@@ -2216,11 +2216,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C8:F8"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
@@ -2229,6 +2224,11 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2296,12 +2296,12 @@
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2309,19 +2309,19 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2336,10 +2336,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2348,38 +2348,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="45" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -2635,16 +2635,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
